--- a/data/income_statement/2digits/size/85_IS_MICRO.xlsx
+++ b/data/income_statement/2digits/size/85_IS_MICRO.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>85-Education</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>85-Education</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,524 +841,594 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>348982.97057</v>
+        <v>359065.98831</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>393434.14887</v>
+        <v>407552.5616599999</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>434183.18278</v>
+        <v>449188.28776</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>516501.91481</v>
+        <v>538616.57655</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>595484.5246499999</v>
+        <v>625838.7666400002</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>690560.1108500001</v>
+        <v>725004.2540900001</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>818269.52142</v>
+        <v>868256.0370099999</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>844415.3685100001</v>
+        <v>912015.18606</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>972137.6478</v>
+        <v>1044222.42463</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>1498281.10886</v>
+        <v>1612400.10335</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>1814233.78447</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>1986243.59077</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>1888109.193</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>322956.10658</v>
+        <v>330483.6268499999</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>366307.38474</v>
+        <v>378830.0457899999</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>400226.34546</v>
+        <v>412495.89735</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>469284.35072</v>
+        <v>486027.18817</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>552027.78379</v>
+        <v>576271.3507899999</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>639948.5285599999</v>
+        <v>667789.00736</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>766233.98707</v>
+        <v>808870.47713</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>787318.09747</v>
+        <v>846214.3313999999</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>901174.8012999999</v>
+        <v>961810.4362699999</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>1365071.4721</v>
+        <v>1465800.56017</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>1651890.05426</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>1787911.36405</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>1742363.432</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>9865.362120000002</v>
+        <v>9867.73804</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>10367.96011</v>
+        <v>10513.42874</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>15177.74626</v>
+        <v>16265.47355</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>23033.35332</v>
+        <v>24320.46659</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>17381.47348</v>
+        <v>18931.42139</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>23712.79576</v>
+        <v>23897.73292</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>20831.05052</v>
+        <v>22394.33871</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>22854.08214</v>
+        <v>25247.94044</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>28305.29899</v>
+        <v>30977.17654</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>77726.98428</v>
+        <v>82851.69031000001</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>82948.61702000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>95301.25308000001</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>53353.46</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>16161.50187</v>
+        <v>18714.62342</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>16758.80402</v>
+        <v>18209.08713</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>18779.09106</v>
+        <v>20426.91686</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>24184.21077</v>
+        <v>28268.92179</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>26075.26738</v>
+        <v>30635.99446</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>26898.78653</v>
+        <v>33317.51381</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>31204.48383</v>
+        <v>36991.22117</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>34243.1889</v>
+        <v>40552.91422</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>42657.54751</v>
+        <v>51434.81182000001</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>55482.65248</v>
+        <v>63747.85287</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>79395.11319000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>103030.97364</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>92392.30100000001</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>2144.71374</v>
+        <v>2269.03598</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>1668.55845</v>
+        <v>1848.19136</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>1928.77304</v>
+        <v>2443.30136</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>2223.37138</v>
+        <v>2423.3073</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>3300.63565</v>
+        <v>3657.14853</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>3176.26677</v>
+        <v>3345.63447</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>4036.5138</v>
+        <v>4196.43849</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>5549.658129999999</v>
+        <v>6961.513260000001</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>7328.638460000001</v>
+        <v>7608.41723</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>8090.345490000001</v>
+        <v>9828.73717</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>9304.56151</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>11547.35454</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>15209.299</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>1723.61594</v>
+        <v>1810.50567</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>1112.24877</v>
+        <v>1273.19032</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>1172.90097</v>
+        <v>1609.11946</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>1491.12303</v>
+        <v>1597.58712</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>2149.63962</v>
+        <v>2272.065669999999</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>1845.44852</v>
+        <v>1913.28796</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>2972.86714</v>
+        <v>3119.0371</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>4667.567129999999</v>
+        <v>5626.074259999999</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>6665.16245</v>
+        <v>6930.17113</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>7548.25127</v>
+        <v>9286.642949999999</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>8612.85334</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>9770.94131</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>11975.007</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>415.49176</v>
+        <v>415.4917599999999</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>550.13836</v>
+        <v>555.4023199999999</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>742.58552</v>
+        <v>788.75888</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>518.66769</v>
+        <v>577.91269</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>1104.00006</v>
+        <v>1291.22705</v>
       </c>
       <c r="H11" s="48" t="n">
         <v>1223.61469</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>1031.63081</v>
+        <v>1045.38554</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>705.4810799999999</v>
+        <v>1050.67458</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>433.94909</v>
+        <v>438.92562</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>302.1184499999999</v>
+        <v>302.11845</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>449.4879</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>934.19296</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>2926.317</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>5.60604</v>
+        <v>43.03855</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>6.171320000000001</v>
+        <v>19.59872</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>13.28655</v>
+        <v>45.42301999999999</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>213.58066</v>
+        <v>247.80749</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>46.99597</v>
+        <v>93.85580999999999</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>107.20356</v>
+        <v>208.73182</v>
       </c>
       <c r="I12" s="48" t="n">
         <v>32.01585</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>176.60992</v>
+        <v>284.76442</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>229.52692</v>
+        <v>239.32048</v>
       </c>
       <c r="L12" s="48" t="n">
         <v>239.97577</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>242.22027</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>842.2202699999999</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>307.975</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>346838.25683</v>
+        <v>356796.95233</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>391765.59042</v>
+        <v>405704.3703000001</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>432254.40974</v>
+        <v>446744.9864</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>514278.54343</v>
+        <v>536193.26925</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>592183.889</v>
+        <v>622181.61811</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>687383.84408</v>
+        <v>721658.61962</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>814233.00762</v>
+        <v>864059.59852</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>838865.7103799998</v>
+        <v>905053.6728000001</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>964809.00934</v>
+        <v>1036614.0074</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>1490190.76337</v>
+        <v>1602571.36618</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>1804929.22296</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1974696.23623</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>1872899.894</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>214742.77255</v>
+        <v>219051.61292</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>258810.32989</v>
+        <v>266686.88807</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>276160.1639700001</v>
+        <v>283065.72338</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>334915.54185</v>
+        <v>347758.30963</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>378856.01372</v>
+        <v>394884.7517</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>458012.38369</v>
+        <v>480144.7713199999</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>564433.4644299999</v>
+        <v>594945.6243100001</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>560104.52199</v>
+        <v>597856.7106699999</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>640586.09662</v>
+        <v>685417.8179800001</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>1015811.39789</v>
+        <v>1086215.24888</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>1256127.60772</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1361847.09862</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>1227665.304</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>3408.16857</v>
+        <v>4016.220479999999</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>9219.885340000001</v>
+        <v>9287.957759999998</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>3430.85291</v>
+        <v>4391.86433</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>8048.246799999999</v>
+        <v>8312.282230000001</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>3923.95967</v>
+        <v>3984.33514</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>8472.66511</v>
+        <v>9727.648640000001</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>8104.99289</v>
+        <v>10508.92827</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>7142.6714</v>
+        <v>9374.313120000001</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>11543.93397</v>
+        <v>13013.76164</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>29700.30708</v>
+        <v>32088.57957</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>33815.60495</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>45040.05138</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>30148.941</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>24628.62946</v>
+        <v>25273.65259</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>43153.32537000001</v>
+        <v>45848.56891</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>35373.9445</v>
+        <v>37147.80778999999</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>53841.06896</v>
+        <v>56305.81022000001</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>57327.11412999999</v>
+        <v>62153.47681</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>91677.37273</v>
+        <v>94729.67017999999</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>147912.64335</v>
+        <v>154066.40141</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>77523.94725999999</v>
+        <v>81485.20184000001</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>59370.1923</v>
+        <v>65793.96823</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>162790.06034</v>
+        <v>182408.32422</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>191728.50528</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>209875.51871</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>206208.584</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>185765.80457</v>
+        <v>188613.67031</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>205708.01041</v>
+        <v>210821.25263</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>236678.64315</v>
+        <v>240849.32785</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>271578.50104</v>
+        <v>281692.49213</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>316657.66752</v>
+        <v>327715.43806</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>354991.21191</v>
+        <v>372816.31856</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>405381.59177</v>
+        <v>427129.71939</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>469359.62546</v>
+        <v>498912.9712600001</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>562824.89154</v>
+        <v>598159.11638</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>813951.2188200001</v>
+        <v>862081.9382699999</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>1014946.627</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1089626.08463</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>977350.409</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>940.16995</v>
+        <v>1148.06954</v>
       </c>
       <c r="D18" s="48" t="n">
         <v>729.10877</v>
@@ -1469,115 +1440,130 @@
         <v>1447.72505</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>947.2723999999999</v>
+        <v>1031.50169</v>
       </c>
       <c r="H18" s="48" t="n">
         <v>2871.13394</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>3034.23642</v>
+        <v>3240.57524</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>6078.27787</v>
+        <v>8084.22445</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>6847.07881</v>
+        <v>8450.971730000001</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>9369.81165</v>
+        <v>9636.40682</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>15636.87049</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>17305.4439</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>13957.37</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>132095.48428</v>
+        <v>137745.33941</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>132955.26053</v>
+        <v>139017.48223</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>156094.24577</v>
+        <v>163679.26302</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>179363.00158</v>
+        <v>188434.95962</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>213327.87528</v>
+        <v>227296.86641</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>229371.46039</v>
+        <v>241513.8483</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>249799.54319</v>
+        <v>269113.97421</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>278761.18839</v>
+        <v>307196.9621300001</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>324222.91272</v>
+        <v>351196.18942</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>474379.36548</v>
+        <v>516356.1173000001</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>548801.61524</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>612849.13761</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>645234.59</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>152061.12774</v>
+        <v>158948.85807</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>153950.35003</v>
+        <v>162756.10946</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>187883.04994</v>
+        <v>199788.71645</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>228205.45702</v>
+        <v>245001.41497</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>266606.41629</v>
+        <v>287456.1492399999</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>295338.0523400001</v>
+        <v>327087.0678099999</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>331523.3986</v>
+        <v>359305.64605</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>385970.06871</v>
+        <v>429570.80985</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>449805.6161099999</v>
+        <v>492320.01268</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>635776.48552</v>
+        <v>685984.11661</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>750932.68463</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>832063.1811800001</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>788037.825</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>453.47805</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>367.0977799999999</v>
+        <v>560.4419700000001</v>
       </c>
       <c r="E21" s="48" t="n">
         <v>292.09328</v>
@@ -1592,196 +1578,221 @@
         <v>794.27112</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>1135.03047</v>
+        <v>1159.67723</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>1027.49031</v>
+        <v>1059.378</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>282.09813</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>641.01687</v>
+        <v>749.09808</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>2770.40422</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>3560.99517</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>3103.972</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>9526.444150000001</v>
+        <v>9825.37118</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>10423.02631</v>
+        <v>10949.10289</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>11309.02381</v>
+        <v>12676.57956</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>17759.33239</v>
+        <v>18620.75604</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>16695.80426</v>
+        <v>17701.80147</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>21357.65958</v>
+        <v>23005.16913</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>25175.3301</v>
+        <v>27177.8267</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>26795.56247</v>
+        <v>29632.5802</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>29398.17171</v>
+        <v>33499.94522</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>43911.42470999999</v>
+        <v>49218.54515000001</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>53680.58431000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>57275.98614</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>56402.605</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>142081.20554</v>
+        <v>148670.00884</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>143160.22594</v>
+        <v>151246.5646</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>176281.93285</v>
+        <v>186820.04361</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>210036.67881</v>
+        <v>225971.21311</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>249476.68215</v>
+        <v>269320.41789</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>273186.12164</v>
+        <v>303287.6275599999</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>305213.03803</v>
+        <v>330968.1421199999</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>358147.01593</v>
+        <v>398878.85165</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>420125.34627</v>
+        <v>458537.96933</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>591224.0439399999</v>
+        <v>636016.47338</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>694481.6960999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>771226.19987</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>728531.248</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>-19965.64346</v>
+        <v>-21203.51866</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>-20995.08950000001</v>
+        <v>-23738.62723000001</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>-31788.80417</v>
+        <v>-36109.45343000001</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>-48842.45544</v>
+        <v>-56566.45535</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>-53278.54100999999</v>
+        <v>-60159.28283</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>-65966.59195</v>
+        <v>-85573.21951</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>-81723.85540999999</v>
+        <v>-90191.67184</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-107208.88032</v>
+        <v>-122373.84772</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>-125582.70339</v>
+        <v>-141123.82326</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>-161397.12004</v>
+        <v>-169627.99931</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>-202131.06939</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>-219214.04357</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>-142803.235</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>3450.62434</v>
+        <v>7093.67314</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>3326.0357</v>
+        <v>10469.63219</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>5795.805</v>
+        <v>15839.83448</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>6122.3061</v>
+        <v>22831.48364</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>9201.774579999999</v>
+        <v>26249.96405</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>7878.40467</v>
+        <v>25682.74957</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>10346.54282</v>
+        <v>46819.02735</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>10968.18856</v>
+        <v>37110.39819</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>24742.39858</v>
+        <v>97280.19226</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>41774.75316000001</v>
+        <v>93067.95927999998</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>28535.55833</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>75233.50317999999</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>93986.72900000001</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>6.46779</v>
+        <v>62.1094</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>2.27743</v>
+        <v>426.78578</v>
       </c>
       <c r="E26" s="48" t="n">
         <v>4.27987</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>159.19001</v>
+        <v>299.86759</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>84.04073</v>
+        <v>213.9369</v>
       </c>
       <c r="H26" s="48" t="n">
         <v>217.01368</v>
@@ -1790,22 +1801,27 @@
         <v>350.14774</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>204.67052</v>
+        <v>1254.86605</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>292.60599</v>
+        <v>292.60605</v>
       </c>
       <c r="L26" s="48" t="n">
         <v>660.7232299999999</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>201.933</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>201.93316</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,206 +1856,236 @@
       <c r="M27" s="48" t="n">
         <v>182.33563</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>1.232</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>623.95249</v>
+        <v>987.6761499999999</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>614.9663799999998</v>
+        <v>1688.81944</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>618.482</v>
+        <v>1600.96591</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>760.7238600000001</v>
+        <v>3339.08572</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>991.6864300000001</v>
+        <v>2934.64739</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>1301.07602</v>
+        <v>3560.52718</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>1373.07729</v>
+        <v>8045.243209999999</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>1467.94547</v>
+        <v>4318.57148</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>1720.35663</v>
+        <v>6924.500399999999</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>5022.378779999999</v>
+        <v>14641.34172</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>6245.912179999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>13993.60735</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>12213.53</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>538.16721</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>138.19042</v>
+        <v>436.45869</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>407.37854</v>
+        <v>408.06996</v>
       </c>
       <c r="F29" s="48" t="n">
         <v>410.3541</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>374.69022</v>
+        <v>404.5158299999999</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>852.36083</v>
+        <v>859.22082</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>646.60679</v>
+        <v>649.21122</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>666.6705700000001</v>
+        <v>682.9816500000001</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>1278.37609</v>
+        <v>1278.41109</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>1639.75895</v>
+        <v>1639.93456</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>1829.06291</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>1830.44899</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>1989.678</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>33.90097</v>
+        <v>35.07483</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>53.72219999999999</v>
+        <v>53.8242</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>68.22823000000001</v>
+        <v>89.32329000000001</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>280.77815</v>
+        <v>476.21615</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>178.75687</v>
+        <v>329.7832099999999</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>58.30379</v>
+        <v>99.29779000000001</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>63.43085</v>
+        <v>215.44384</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>38.65333</v>
+        <v>559.29048</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>49.00921</v>
+        <v>248.31856</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>511.56852</v>
+        <v>852.5622900000001</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>200.9954</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>375.88629</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>5252.52</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>182.47675</v>
+        <v>640.41868</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>104.2841</v>
+        <v>408.5887</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>142.42606</v>
+        <v>149.44957</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>139.6764</v>
+        <v>172.65017</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>102.68245</v>
+        <v>634.01162</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>131.81764</v>
+        <v>174.5958</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>440.02819</v>
+        <v>539.0399200000001</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>234.94469</v>
+        <v>396.75277</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>290.09111</v>
+        <v>3891.8227</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>780.4116100000001</v>
+        <v>888.06858</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>485.1671</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>592.2887800000001</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>2336.092</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>658.96738</v>
+        <v>2174.15444</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>502.88836</v>
+        <v>1808.19622</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>814.72966</v>
+        <v>3908.3179</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>645.31789</v>
+        <v>4822.98853</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>1597.37729</v>
+        <v>3234.15058</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>1143.01692</v>
+        <v>3030.33308</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>2402.92484</v>
+        <v>14848.96616</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>2726.66649</v>
+        <v>7702.02727</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>4183.43807</v>
+        <v>40599.96155</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>20608.28092</v>
+        <v>43054.10645000001</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>7216.75157</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>15890.51339</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>28116.884</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>6.680350000000001</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>71.581</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>5.235</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>14.93455</v>
@@ -2099,10 +2150,10 @@
         <v>0</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>54.76069</v>
+        <v>105.82117</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>0</v>
+        <v>0.21522</v>
       </c>
       <c r="K34" s="48" t="n">
         <v>41.22128</v>
@@ -2113,131 +2164,151 @@
       <c r="M34" s="48" t="n">
         <v>0.44883</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>1385.07685</v>
+        <v>2634.45753</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>1895.47359</v>
+        <v>5632.72594</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>3734.73385</v>
+        <v>9673.881190000002</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>3719.99241</v>
+        <v>13304.0481</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>5804.019939999999</v>
+        <v>18430.39787</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>4153.61445</v>
+        <v>17720.55988</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>4994.82933</v>
+        <v>22044.41699</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>5607.200900000001</v>
+        <v>22174.25668</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>16759.80925</v>
+        <v>43875.85968</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>12470.0118</v>
+        <v>31249.6031</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>12101.37071</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>42094.45976000001</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>44071.556</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>2164.83411</v>
+        <v>3760.33649</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>1928.19231</v>
+        <v>3366.43011</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>1882.31505</v>
+        <v>7683.223260000001</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>2906.79563</v>
+        <v>6225.77838</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>7637.13224</v>
+        <v>16606.45886</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>4341.55735</v>
+        <v>8110.28276</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>5550.301759999999</v>
+        <v>10898.35384</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>5559.58749</v>
+        <v>90365.75064</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>7617.274909999999</v>
+        <v>76678.73039</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>19586.3036</v>
+        <v>39019.96059</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>8626.143179999999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>20414.53578</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>33482.556</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>205.54667</v>
+        <v>206.45981</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>261.21428</v>
+        <v>329.55772</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>209.14522</v>
+        <v>209.19772</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>351.83953</v>
+        <v>360.1488899999999</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>454.77038</v>
+        <v>505.51921</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>292.36173</v>
+        <v>504.30119</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>1778.95303</v>
+        <v>1783.84533</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>1682.17501</v>
+        <v>1684.94211</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>492.21547</v>
+        <v>538.8831799999999</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>727.3328</v>
+        <v>787.3145500000001</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>982.3653399999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>1119.4501</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>1591.776</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>137.32174</v>
+        <v>141.69894</v>
       </c>
       <c r="D38" s="48" t="n">
         <v>551.5141699999999</v>
@@ -2246,40 +2317,45 @@
         <v>388.69868</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>138.11944</v>
+        <v>157.22922</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>252.64232</v>
+        <v>1307.17751</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>751.1641300000001</v>
+        <v>924.90128</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>718.1794699999999</v>
+        <v>827.3609700000001</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>223.4206</v>
+        <v>656.551</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>255.75664</v>
+        <v>297.26964</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>429.31643</v>
+        <v>1512.01412</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>666.12852</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>1643.20502</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>4134.834</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>103.71091</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>34.6956</v>
+        <v>34.77633</v>
       </c>
       <c r="E39" s="48" t="n">
         <v>7.98758</v>
@@ -2294,7 +2370,7 @@
         <v>12.36983</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>148.06094</v>
+        <v>148.06195</v>
       </c>
       <c r="J39" s="48" t="n">
         <v>11.43991</v>
@@ -2303,55 +2379,65 @@
         <v>82.65845999999999</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>392.28851</v>
+        <v>506.1249</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>26.38785</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>65.32146</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>388.886</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>781.38761</v>
+        <v>1497.14064</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>495.20018</v>
+        <v>1553.59909</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>499.65875</v>
+        <v>5888.096089999999</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>514.34192</v>
+        <v>3805.80382</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>1751.74293</v>
+        <v>9564.301949999999</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>913.82876</v>
+        <v>3792.68356</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>1788.4685</v>
+        <v>6992.02383</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>1989.34401</v>
+        <v>86277.74405000001</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>4086.034749999999</v>
+        <v>72607.54566000002</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>15433.19477</v>
+        <v>32652.24144</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>4647.96725</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>13159.53596</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>19195.325</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>8.90002</v>
@@ -2369,10 +2455,10 @@
         <v>0.7456799999999999</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>0.01144</v>
+        <v>7.20904</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>0</v>
+        <v>0.42614</v>
       </c>
       <c r="J41" s="48" t="n">
         <v>0.06071</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>43.58478</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0.043</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0.20185</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>927.7653099999999</v>
+        <v>1802.22432</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>584.23244</v>
+        <v>895.6471599999999</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>773.3538000000001</v>
+        <v>1185.77217</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>1878.86382</v>
+        <v>1878.96553</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>5162.43756</v>
+        <v>5213.92114</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>2371.82146</v>
+        <v>2868.81786</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>1116.63982</v>
+        <v>1146.63562</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>1653.14725</v>
+        <v>1735.01286</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>2700.60959</v>
+        <v>3152.37345</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>2603.33813</v>
+        <v>3561.43262</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>2259.70944</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>4383.43846</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>8171.692</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>3324.19019</v>
+        <v>4394.55503</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>2650.62606</v>
+        <v>3859.07078</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>3430.55341</v>
+        <v>7072.50982</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>4806.28606</v>
+        <v>7376.06201</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>5019.998320000001</v>
+        <v>8337.588720000002</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>5973.89588</v>
+        <v>9479.99439</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>7052.2086</v>
+        <v>11664.26338</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>7930.78498</v>
+        <v>13339.02136</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>10622.23271</v>
+        <v>19722.76553</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>21741.76957</v>
+        <v>36726.14079</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>19719.72852</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>32683.15475</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>33232.34</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>3075.82397</v>
+        <v>4134.98387</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>2502.51425</v>
+        <v>3608.23945</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>3244.46488</v>
+        <v>4647.92979</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>4434.473649999999</v>
+        <v>6998.360099999999</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>4802.82257</v>
+        <v>7823.48125</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>5684.042530000001</v>
+        <v>8841.42475</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>6657.340399999999</v>
+        <v>10626.78322</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>7479.898729999999</v>
+        <v>12378.50434</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>10078.526</v>
+        <v>18865.76208</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>20922.93743</v>
+        <v>35797.81718</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>19042.23423</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>31883.52043</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>30894.152</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>248.36622</v>
+        <v>259.57116</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>148.11181</v>
+        <v>250.83133</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>186.08853</v>
+        <v>2424.58003</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>371.81241</v>
+        <v>377.70191</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>217.17575</v>
+        <v>514.10747</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>289.85335</v>
+        <v>638.5696400000002</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>394.8682</v>
+        <v>1037.48016</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>450.88625</v>
+        <v>960.5170199999999</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>543.70671</v>
+        <v>857.0034499999999</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>818.83214</v>
+        <v>928.32361</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>677.4942900000001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>799.6343200000001</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>2338.188</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>-22004.04342</v>
+        <v>-22264.73704</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>-22247.87217</v>
+        <v>-20494.49593</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>-31305.86763</v>
+        <v>-35025.35203</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>-50433.23103</v>
+        <v>-47336.8121</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-56733.89699</v>
+        <v>-58853.36636</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-68403.64051</v>
+        <v>-77480.74709</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-83979.82295</v>
+        <v>-65935.26170999999</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-109731.06423</v>
+        <v>-188968.22153</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>-119079.81243</v>
+        <v>-140245.12692</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-160950.44005</v>
+        <v>-152306.14141</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-201941.38276</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-197078.23092</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-115531.402</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>3524.02722</v>
+        <v>5117.02575</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>3838.6659</v>
+        <v>16226.21931</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>4593.25184</v>
+        <v>15389.14116</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>8867.942650000001</v>
+        <v>9960.043619999997</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>6388.44298</v>
+        <v>10239.08346</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>7078.03336</v>
+        <v>82241.14046000001</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>9200.10518</v>
+        <v>10758.73708</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>12411.87438</v>
+        <v>42358.66397</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>14245.44301</v>
+        <v>16964.84865</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>21869.80036</v>
+        <v>29298.0828</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>29497.06719999999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>34985.41656</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>52787.202</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>186.91949</v>
+        <v>270.98065</v>
       </c>
       <c r="D49" s="48" t="n">
         <v>138.46503</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>94.60095999999999</v>
+        <v>203.62701</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>189.88808</v>
+        <v>189.89708</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>20.85864</v>
+        <v>34.07642</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>170.39676</v>
+        <v>297.52677</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>87.96696</v>
+        <v>90.39542</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>35.08392</v>
+        <v>35.42392</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>133.28407</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>116.90687</v>
+        <v>123.65687</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>341.43112</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>446.23876</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>493.208</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>3337.10773</v>
+        <v>4846.045099999999</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>3700.20087</v>
+        <v>16087.75428</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>4498.65088</v>
+        <v>15185.51415</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>8678.05457</v>
+        <v>9770.14654</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>6367.584339999999</v>
+        <v>10205.00704</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>6907.6366</v>
+        <v>81943.61369000001</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>9112.138220000001</v>
+        <v>10668.34166</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>12376.79046</v>
+        <v>42323.24005</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>14112.15894</v>
+        <v>16831.56458</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>21752.89349</v>
+        <v>29174.42593</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>29155.63608</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>34539.1778</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>52293.994</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>4183.83025</v>
+        <v>5859.180540000001</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>6174.25344</v>
+        <v>7937.034</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>24055.39576</v>
+        <v>41053.28063</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>12582.04013</v>
+        <v>17560.57878</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>10927.05321</v>
+        <v>14118.28176</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>42754.30276000001</v>
+        <v>48373.84324</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>12695.12356</v>
+        <v>13921.67025</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>31055.56078</v>
+        <v>56130.60661000001</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>20811.76525</v>
+        <v>25589.55535</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>53003.37586000001</v>
+        <v>72671.57503000001</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>25047.39044</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>61011.81604999999</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>47776.497</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>233.64574</v>
+        <v>341.55361</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>140.63126</v>
+        <v>240.81469</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>560.03548</v>
+        <v>1361.89984</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>322.61619</v>
+        <v>2396.02881</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>522.58113</v>
+        <v>581.6368299999999</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>454.38428</v>
+        <v>563.77538</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>480.78872</v>
+        <v>536.1851799999999</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>527.6009500000001</v>
+        <v>581.0756000000001</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>1130.23845</v>
+        <v>1313.93579</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>1207.48797</v>
+        <v>1440.28178</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>440.03489</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>933.6150799999999</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>2082.485</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>810.60189</v>
+        <v>813.47892</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>1743.33225</v>
+        <v>2086.45915</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>1267.46715</v>
+        <v>3881.98053</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>3296.29957</v>
+        <v>3499.171350000001</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>2919.85373</v>
+        <v>3157.80894</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>3006.19853</v>
+        <v>3130.0547</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>1060.56035</v>
+        <v>1306.83854</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>1014.62428</v>
+        <v>1572.85023</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>1179.44091</v>
+        <v>1250.49813</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>1098.60465</v>
+        <v>1819.22989</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>957.59029</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>3776.223979999999</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>2472.443</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>3139.58262</v>
+        <v>4704.14801</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>4290.28993</v>
+        <v>5609.76016</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>22227.89313</v>
+        <v>35809.40025999999</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>8963.124370000001</v>
+        <v>11665.37862</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>7484.61835</v>
+        <v>10378.83599</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>39293.71995000001</v>
+        <v>44680.01315999999</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>11153.77449</v>
+        <v>12078.64653</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>29513.33555</v>
+        <v>53976.68078</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>18502.08589</v>
+        <v>23025.12143</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>50697.28324</v>
+        <v>69412.06336</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>23649.76526</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>56301.97699</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>43221.569</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>-22663.84645</v>
+        <v>-23006.89183</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>-24583.45971</v>
+        <v>-12205.31062</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-50768.01155</v>
+        <v>-60689.49150000001</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>-54147.32851000001</v>
+        <v>-54937.34726</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-61272.50722000001</v>
+        <v>-62732.56466</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-104079.90991</v>
+        <v>-43613.44986999999</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-87474.84133</v>
+        <v>-69098.19488</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-128374.75063</v>
+        <v>-202740.1641699999</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>-125646.13467</v>
+        <v>-148869.83362</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-192084.01555</v>
+        <v>-195679.63364</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-197491.706</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-223104.63041</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-110520.697</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>3992.8265</v>
+        <v>4780.374610000001</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>4167.77321</v>
+        <v>5100.57034</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>5115.850280000001</v>
+        <v>5952.406359999999</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>5633.605779999999</v>
+        <v>7201.640630000001</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>6825.82428</v>
+        <v>9281.54802</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>7748.16473</v>
+        <v>12599.90577</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>7599.50433</v>
+        <v>12521.51278</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>9054.817649999999</v>
+        <v>13739.48133</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>11631.3646</v>
+        <v>15502.61098</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>19619.5665</v>
+        <v>28381.01595</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>22463.62101</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>32333.20423</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>38930.851</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>-26656.67295</v>
+        <v>-27787.26644</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>-28751.23292</v>
+        <v>-17305.88096</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-55883.86183</v>
+        <v>-66641.89786</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-59780.93429</v>
+        <v>-62138.98789</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-68098.3315</v>
+        <v>-72014.11268000001</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-111828.07464</v>
+        <v>-56213.35563999999</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-95074.34566000001</v>
+        <v>-81619.70766</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-137429.56828</v>
+        <v>-216479.6455</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-137277.49927</v>
+        <v>-164372.4446</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-211703.58205</v>
+        <v>-224060.64959</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-219955.3270099999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-255437.83464</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-149451.548</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>3818</v>
+        <v>3879</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>3972</v>
+        <v>4044</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>4329</v>
+        <v>4411</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>4738</v>
+        <v>4858</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>5055</v>
+        <v>5202</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>5422</v>
+        <v>5602</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>5754</v>
+        <v>5993</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>6155</v>
+        <v>6502</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>6849</v>
+        <v>7165</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>7412</v>
+        <v>8037</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>7827</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>8777</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>9747</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>